--- a/data/pred_bog.xlsx
+++ b/data/pred_bog.xlsx
@@ -412,13 +412,13 @@
         <v>44562</v>
       </c>
       <c r="C2">
-        <v>81.23883549697489</v>
+        <v>75.29691415590982</v>
       </c>
       <c r="D2">
-        <v>53.16446116091528</v>
+        <v>28.73508685039455</v>
       </c>
       <c r="E2">
-        <v>109.3132098330345</v>
+        <v>121.8587414614251</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -429,13 +429,13 @@
         <v>44593</v>
       </c>
       <c r="C3">
-        <v>72.73748132525451</v>
+        <v>64.64827118683</v>
       </c>
       <c r="D3">
-        <v>53.16446116091528</v>
+        <v>12.71461901674608</v>
       </c>
       <c r="E3">
-        <v>109.3132098330345</v>
+        <v>116.5819233569139</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -446,13 +446,13 @@
         <v>44621</v>
       </c>
       <c r="C4">
-        <v>81.82384136295909</v>
+        <v>78.97042077306274</v>
       </c>
       <c r="D4">
-        <v>53.16446116091528</v>
+        <v>25.80811280641017</v>
       </c>
       <c r="E4">
-        <v>109.3132098330345</v>
+        <v>132.1327287397153</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -463,13 +463,13 @@
         <v>44652</v>
       </c>
       <c r="C5">
-        <v>67.72653567702548</v>
+        <v>66.38426650867017</v>
       </c>
       <c r="D5">
-        <v>53.16446116091528</v>
+        <v>12.92639221966384</v>
       </c>
       <c r="E5">
-        <v>109.3132098330345</v>
+        <v>119.8421407976765</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -480,13 +480,13 @@
         <v>44682</v>
       </c>
       <c r="C6">
-        <v>101.9578858772719</v>
+        <v>126.353344005573</v>
       </c>
       <c r="D6">
-        <v>53.16446116091528</v>
+        <v>72.82358461368045</v>
       </c>
       <c r="E6">
-        <v>109.3132098330345</v>
+        <v>179.8831033974656</v>
       </c>
     </row>
   </sheetData>
